--- a/School project/Table.xlsx
+++ b/School project/Table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <t>№ п/п</t>
   </si>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1001"/>
@@ -685,7 +685,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>38720</v>
+        <v>41007</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>38721</v>
+        <v>41007</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>11</v>
@@ -1280,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>38753</v>
+        <v>41007</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>38717</v>
+        <v>41007</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>

--- a/School project/Table.xlsx
+++ b/School project/Table.xlsx
@@ -894,6 +894,9 @@
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.5" zeroHeight="false"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="6" min="6" outlineLevel="0" width="9.60625725405732"/>
+  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
@@ -1372,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>41007</v>
+        <v>45755</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>

--- a/School project/Table.xlsx
+++ b/School project/Table.xlsx
@@ -424,6 +424,9 @@
     </r>
   </si>
   <si>
+    <t>9м</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color theme="1" tint="0"/>
@@ -454,6 +457,9 @@
     </r>
   </si>
   <si>
+    <t>8хб</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color theme="1" tint="0"/>
@@ -482,6 +488,9 @@
       </rPr>
       <t>Отчество15</t>
     </r>
+  </si>
+  <si>
+    <t>10хб</t>
   </si>
   <si>
     <r>
@@ -938,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>38718</v>
+        <v>38820</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -961,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>38719</v>
+        <v>38820</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>11</v>
@@ -984,7 +993,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>38719</v>
+        <v>38820</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
@@ -1007,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>41007</v>
+        <v>38820</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
@@ -1030,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>38720</v>
+        <v>38820</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>26</v>
@@ -1053,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>38720</v>
+        <v>38821</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>11</v>
@@ -1076,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>38721</v>
+        <v>38821</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>26</v>
@@ -1099,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>38721</v>
+        <v>38821</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>11</v>
@@ -1122,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>41007</v>
+        <v>38790</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>11</v>
@@ -1145,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>38721</v>
+        <v>38821</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>26</v>
@@ -1168,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>38722</v>
+        <v>38822</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>11</v>
@@ -1191,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>38722</v>
+        <v>38822</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>26</v>
@@ -1214,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>38722</v>
+        <v>38822</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
@@ -1225,22 +1234,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>38722</v>
+        <v>38822</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
@@ -1248,22 +1257,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>38722</v>
+        <v>38822</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -1271,13 +1280,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1294,19 +1303,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>38717</v>
+        <v>38821</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
@@ -1317,13 +1326,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1340,13 +1349,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1363,13 +1372,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>

--- a/School project/Table.xlsx
+++ b/School project/Table.xlsx
@@ -1893,9 +1893,6 @@
   </si>
   <si>
     <t>Григорьевна</t>
-  </si>
-  <si>
-    <t>дичь</t>
   </si>
   <si>
     <t>Полещук</t>
@@ -9976,40 +9973,36 @@
         <v>624</v>
       </c>
       <c r="D401" s="59" t="n">
-        <v>-328345</v>
+        <v>40505</v>
       </c>
       <c r="E401" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F401" s="0" t="s">
-        <v>625</v>
-      </c>
+      <c r="F401" s="0" t="n"/>
       <c r="G401" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="402">
       <c r="A402" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="B402" s="58" t="s">
         <v>626</v>
-      </c>
-      <c r="B402" s="58" t="s">
-        <v>627</v>
       </c>
       <c r="C402" s="58" t="s">
         <v>212</v>
       </c>
       <c r="D402" s="59" t="n">
-        <v>-328345</v>
+        <v>40506</v>
       </c>
       <c r="E402" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F402" s="0" t="s">
-        <v>625</v>
-      </c>
+      <c r="F402" s="0" t="n"/>
       <c r="G402" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="403">
       <c r="A403" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B403" s="36" t="s">
         <v>6</v>
@@ -10027,7 +10020,7 @@
     </row>
     <row outlineLevel="0" r="404">
       <c r="A404" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B404" s="36" t="s">
         <v>183</v>
@@ -10045,10 +10038,10 @@
     </row>
     <row outlineLevel="0" r="405">
       <c r="A405" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="B405" s="36" t="s">
         <v>630</v>
-      </c>
-      <c r="B405" s="36" t="s">
-        <v>631</v>
       </c>
       <c r="C405" s="36" t="s">
         <v>48</v>
@@ -10063,7 +10056,7 @@
     </row>
     <row outlineLevel="0" r="406">
       <c r="A406" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B406" s="52" t="s">
         <v>36</v>
@@ -10081,10 +10074,10 @@
     </row>
     <row outlineLevel="0" r="407">
       <c r="A407" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="B407" s="36" t="s">
         <v>633</v>
-      </c>
-      <c r="B407" s="36" t="s">
-        <v>634</v>
       </c>
       <c r="C407" s="36" t="s">
         <v>123</v>
@@ -10099,13 +10092,13 @@
     </row>
     <row outlineLevel="0" r="408">
       <c r="A408" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B408" s="36" t="s">
         <v>635</v>
       </c>
-      <c r="B408" s="36" t="s">
+      <c r="C408" s="36" t="s">
         <v>636</v>
-      </c>
-      <c r="C408" s="36" t="s">
-        <v>637</v>
       </c>
       <c r="D408" s="37" t="n">
         <v>41240</v>
@@ -10117,7 +10110,7 @@
     </row>
     <row outlineLevel="0" r="409">
       <c r="A409" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B409" s="36" t="s">
         <v>10</v>
@@ -10135,7 +10128,7 @@
     </row>
     <row outlineLevel="0" r="410">
       <c r="A410" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B410" s="52" t="s">
         <v>207</v>
@@ -10153,7 +10146,7 @@
     </row>
     <row outlineLevel="0" r="411">
       <c r="A411" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B411" s="36" t="s">
         <v>17</v>
@@ -10171,7 +10164,7 @@
     </row>
     <row outlineLevel="0" r="412">
       <c r="A412" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B412" s="36" t="s">
         <v>308</v>
@@ -10189,7 +10182,7 @@
     </row>
     <row outlineLevel="0" r="413">
       <c r="A413" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B413" s="36" t="s">
         <v>344</v>
@@ -10207,7 +10200,7 @@
     </row>
     <row outlineLevel="0" r="414">
       <c r="A414" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B414" s="36" t="s">
         <v>10</v>
@@ -10225,7 +10218,7 @@
     </row>
     <row outlineLevel="0" r="415">
       <c r="A415" s="39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B415" s="39" t="s">
         <v>120</v>
@@ -10243,7 +10236,7 @@
     </row>
     <row outlineLevel="0" r="416">
       <c r="A416" s="61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B416" s="61" t="s">
         <v>106</v>
@@ -10261,7 +10254,7 @@
     </row>
     <row outlineLevel="0" r="417">
       <c r="A417" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B417" s="36" t="s">
         <v>156</v>
@@ -10279,7 +10272,7 @@
     </row>
     <row outlineLevel="0" r="418">
       <c r="A418" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B418" s="36" t="s">
         <v>113</v>
@@ -10297,7 +10290,7 @@
     </row>
     <row outlineLevel="0" r="419">
       <c r="A419" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B419" s="36" t="s">
         <v>10</v>
@@ -10315,7 +10308,7 @@
     </row>
     <row outlineLevel="0" r="420">
       <c r="A420" s="65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B420" s="65" t="s">
         <v>85</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row outlineLevel="0" r="421">
       <c r="A421" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B421" s="36" t="s">
         <v>230</v>
@@ -10351,7 +10344,7 @@
     </row>
     <row outlineLevel="0" r="422">
       <c r="A422" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B422" s="36" t="s">
         <v>390</v>
@@ -10369,7 +10362,7 @@
     </row>
     <row outlineLevel="0" r="423">
       <c r="A423" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B423" s="36" t="s">
         <v>139</v>
@@ -10387,7 +10380,7 @@
     </row>
     <row outlineLevel="0" r="424">
       <c r="A424" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B424" s="36" t="s">
         <v>409</v>
@@ -10405,7 +10398,7 @@
     </row>
     <row outlineLevel="0" r="425">
       <c r="A425" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B425" s="36" t="s">
         <v>392</v>
@@ -10441,13 +10434,13 @@
     </row>
     <row outlineLevel="0" r="427">
       <c r="A427" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B427" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D427" s="37" t="n">
         <v>39426</v>
@@ -10459,7 +10452,7 @@
     </row>
     <row outlineLevel="0" r="428">
       <c r="A428" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B428" s="36" t="s">
         <v>402</v>
@@ -10477,7 +10470,7 @@
     </row>
     <row outlineLevel="0" r="429">
       <c r="A429" s="36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B429" s="36" t="s">
         <v>175</v>
@@ -10519,7 +10512,7 @@
         <v>181</v>
       </c>
       <c r="C431" s="65" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D431" s="66" t="n">
         <v>26646</v>
@@ -10531,7 +10524,7 @@
     </row>
     <row outlineLevel="0" r="432">
       <c r="A432" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B432" s="36" t="s">
         <v>224</v>
@@ -10549,7 +10542,7 @@
     </row>
     <row outlineLevel="0" r="433">
       <c r="A433" s="65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B433" s="65" t="s">
         <v>6</v>
@@ -10567,7 +10560,7 @@
     </row>
     <row outlineLevel="0" r="434">
       <c r="A434" s="36" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B434" s="36" t="s">
         <v>407</v>
@@ -10585,7 +10578,7 @@
     </row>
     <row outlineLevel="0" r="435">
       <c r="A435" s="36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B435" s="36" t="s">
         <v>52</v>
@@ -10603,7 +10596,7 @@
     </row>
     <row outlineLevel="0" r="436">
       <c r="A436" s="36" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B436" s="36" t="s">
         <v>295</v>
@@ -10621,7 +10614,7 @@
     </row>
     <row outlineLevel="0" r="437">
       <c r="A437" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B437" s="36" t="s">
         <v>113</v>
@@ -10639,7 +10632,7 @@
     </row>
     <row outlineLevel="0" r="438">
       <c r="A438" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B438" s="36" t="s">
         <v>109</v>
@@ -10657,10 +10650,10 @@
     </row>
     <row outlineLevel="0" r="439">
       <c r="A439" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="B439" s="36" t="s">
         <v>667</v>
-      </c>
-      <c r="B439" s="36" t="s">
-        <v>668</v>
       </c>
       <c r="C439" s="36" t="s">
         <v>275</v>
@@ -10675,7 +10668,7 @@
     </row>
     <row outlineLevel="0" r="440">
       <c r="A440" s="36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B440" s="36" t="s">
         <v>584</v>
@@ -10693,13 +10686,13 @@
     </row>
     <row outlineLevel="0" r="441">
       <c r="A441" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B441" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C441" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D441" s="37" t="n">
         <v>41628</v>
@@ -10711,7 +10704,7 @@
     </row>
     <row outlineLevel="0" r="442">
       <c r="A442" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B442" s="36" t="s">
         <v>344</v>
@@ -10729,7 +10722,7 @@
     </row>
     <row outlineLevel="0" r="443">
       <c r="A443" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B443" s="36" t="s">
         <v>23</v>
@@ -10747,7 +10740,7 @@
     </row>
     <row outlineLevel="0" r="444">
       <c r="A444" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B444" s="36" t="s">
         <v>175</v>
@@ -10765,7 +10758,7 @@
     </row>
     <row outlineLevel="0" r="445">
       <c r="A445" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B445" s="36" t="s">
         <v>63</v>
@@ -10783,7 +10776,7 @@
     </row>
     <row outlineLevel="0" r="446">
       <c r="A446" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B446" s="36" t="s">
         <v>274</v>
@@ -10801,7 +10794,7 @@
     </row>
     <row outlineLevel="0" r="447">
       <c r="A447" s="36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B447" s="36" t="s">
         <v>274</v>
@@ -10822,7 +10815,7 @@
         <v>37</v>
       </c>
       <c r="B448" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C448" s="36" t="s">
         <v>177</v>
@@ -10843,7 +10836,7 @@
         <v>139</v>
       </c>
       <c r="C449" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D449" s="37" t="n">
         <v>39443</v>
@@ -10855,7 +10848,7 @@
     </row>
     <row outlineLevel="0" r="450">
       <c r="A450" s="36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B450" s="36" t="s">
         <v>476</v>
@@ -10873,7 +10866,7 @@
     </row>
     <row outlineLevel="0" r="451">
       <c r="A451" s="36" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B451" s="36" t="s">
         <v>17</v>
@@ -10891,10 +10884,10 @@
     </row>
     <row outlineLevel="0" r="452">
       <c r="A452" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="B452" s="36" t="s">
         <v>681</v>
-      </c>
-      <c r="B452" s="36" t="s">
-        <v>682</v>
       </c>
       <c r="C452" s="36" t="s">
         <v>86</v>
@@ -10927,7 +10920,7 @@
     </row>
     <row outlineLevel="0" r="454">
       <c r="A454" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B454" s="36" t="s">
         <v>52</v>
@@ -10945,7 +10938,7 @@
     </row>
     <row outlineLevel="0" r="455">
       <c r="A455" s="68" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B455" s="68" t="s">
         <v>202</v>
